--- a/docs/DiccionarioDatosEasyLearn.xlsx
+++ b/docs/DiccionarioDatosEasyLearn.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jflob\Documents\00_Dev\easy-learn\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D39FAC-E6F9-4B90-92F7-2C2F075709D3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,21 +21,16 @@
     <sheet name="Hoja1 (6)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
     <t>Descripción:</t>
   </si>
@@ -173,13 +174,25 @@
   </si>
   <si>
     <t>puntaje</t>
+  </si>
+  <si>
+    <t>Titulo del curso</t>
+  </si>
+  <si>
+    <t>Puntos totales de esta acti</t>
+  </si>
+  <si>
+    <t>LLAVE PRIMARIA</t>
+  </si>
+  <si>
+    <t>DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +204,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -325,6 +345,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -334,12 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,21 +667,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
@@ -670,7 +691,7 @@
     <col min="7" max="7" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
@@ -686,19 +707,19 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="12" t="s">
         <v>1</v>
@@ -714,7 +735,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -725,10 +746,12 @@
       <c r="E5" s="1">
         <v>99</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -742,7 +765,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -756,7 +779,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -768,7 +791,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -779,20 +802,24 @@
       <c r="E9" s="1">
         <v>99</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -802,7 +829,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="11" t="s">
         <v>5</v>
@@ -814,16 +841,16 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="9"/>
     </row>
   </sheetData>
@@ -837,24 +864,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="38.28515625" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
@@ -870,19 +898,19 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="12" t="s">
         <v>1</v>
@@ -898,7 +926,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>24</v>
@@ -912,7 +940,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -926,7 +954,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>25</v>
@@ -940,7 +968,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -954,7 +982,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -964,7 +992,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -972,7 +1000,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -980,7 +1008,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="11" t="s">
         <v>5</v>
@@ -992,28 +1020,26 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="9"/>
     </row>
   </sheetData>
@@ -1030,14 +1056,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
@@ -1047,7 +1073,7 @@
     <col min="7" max="7" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
@@ -1063,19 +1089,17 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="12" t="s">
         <v>1</v>
@@ -1091,7 +1115,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1105,7 +1129,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -1116,10 +1140,12 @@
       <c r="E6" s="1">
         <v>99</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -1131,7 +1157,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="1" t="s">
         <v>31</v>
@@ -1145,7 +1171,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -1155,7 +1181,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1163,7 +1189,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1171,7 +1197,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="11" t="s">
         <v>5</v>
@@ -1183,14 +1209,14 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="9"/>
     </row>
   </sheetData>
@@ -1205,14 +1231,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
@@ -1222,7 +1248,7 @@
     <col min="7" max="7" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
@@ -1238,19 +1264,19 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="12" t="s">
         <v>1</v>
@@ -1266,7 +1292,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1280,7 +1306,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>34</v>
@@ -1294,7 +1320,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>35</v>
@@ -1308,7 +1334,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -1318,7 +1344,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1326,7 +1352,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1334,7 +1360,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1342,7 +1368,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="11" t="s">
         <v>5</v>
@@ -1354,28 +1380,26 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="9"/>
     </row>
   </sheetData>
@@ -1390,14 +1414,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
@@ -1407,7 +1431,7 @@
     <col min="7" max="7" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
@@ -1423,19 +1447,19 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="12" t="s">
         <v>1</v>
@@ -1451,7 +1475,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>38</v>
@@ -1465,7 +1489,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -1479,7 +1503,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>40</v>
@@ -1493,7 +1517,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -1505,7 +1529,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -1517,7 +1541,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -1527,7 +1551,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1535,7 +1559,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="11" t="s">
         <v>5</v>
@@ -1547,16 +1571,16 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="9"/>
     </row>
   </sheetData>
@@ -1571,14 +1595,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
@@ -1588,7 +1612,7 @@
     <col min="7" max="7" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
@@ -1604,19 +1628,19 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="12" t="s">
         <v>1</v>
@@ -1632,7 +1656,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>45</v>
@@ -1646,7 +1670,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1660,7 +1684,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -1674,7 +1698,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="1" t="s">
         <v>46</v>
@@ -1686,7 +1710,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -1700,7 +1724,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -1710,7 +1734,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -1720,7 +1744,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="11" t="s">
         <v>5</v>
@@ -1732,16 +1756,16 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="9"/>
     </row>
   </sheetData>
